--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-0.6393458531989498</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.711450824786676</v>
+        <v>-8.779635537986385</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.032271698102742</v>
+        <v>-3.031027929332778</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.451048463505949</v>
+        <v>-5.466431919344977</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08951745013977229</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.961356701429542</v>
+        <v>-9.035720981570547</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.119453342725795</v>
+        <v>-3.115525651873277</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.382628088855089</v>
+        <v>-5.403169912013757</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.3216163447146213</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.777609414399796</v>
+        <v>-9.849590895423606</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.004214893112922</v>
+        <v>-2.998349541439829</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.252058552614555</v>
+        <v>-5.270178299747504</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.5229470755706024</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.54590502206081</v>
+        <v>-10.61340893551275</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.907999559529078</v>
+        <v>-2.905237083629474</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.466052242562568</v>
+        <v>-5.486266758150192</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.5568520055968156</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.32272371887178</v>
+        <v>-11.39117027812832</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.757595184483329</v>
+        <v>-2.756979846249767</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.019382146511399</v>
+        <v>-5.039727585127442</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4497249909298804</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.98398975080168</v>
+        <v>-12.05086523371722</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.728962318168474</v>
+        <v>-2.727849472426927</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.150553928682653</v>
+        <v>-5.169590137014522</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2515716619543761</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.48532021121706</v>
+        <v>-12.55253609400648</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.606640932718227</v>
+        <v>-2.604781825714702</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.710403799446664</v>
+        <v>-4.728222423614253</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.007949621962454419</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.45445174447014</v>
+        <v>-13.5205155046095</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.356342286990108</v>
+        <v>-2.355884056390648</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.624557569713466</v>
+        <v>-4.636393011482387</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2305916496608632</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.20083083717411</v>
+        <v>-14.2629538141581</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.334399587427375</v>
+        <v>-2.336219417522375</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.242013572981072</v>
+        <v>-4.246936278849561</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4252625203007738</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.89713187150847</v>
+        <v>-14.9600534789658</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.157378560704397</v>
+        <v>-2.159460236856232</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.028674498175146</v>
+        <v>-4.036739356725649</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5469389730500335</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.55816224198722</v>
+        <v>-15.61879269644725</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.148161579503822</v>
+        <v>-2.152390393321699</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.514068442678261</v>
+        <v>-3.520797886338908</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.583508214961253</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.52606309877318</v>
+        <v>-16.58708632231847</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.980200426347318</v>
+        <v>-1.982701056190088</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.875203340910554</v>
+        <v>-2.883045630312748</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.5380152759998386</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.1631738319601</v>
+        <v>-17.21837098074081</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.705445358910855</v>
+        <v>-1.710053849511143</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.501627571624742</v>
+        <v>-2.505371970237476</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.4288850857873032</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.06637252810225</v>
+        <v>-18.11925233927998</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.537366375028776</v>
+        <v>-1.54376851111838</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.908650991317285</v>
+        <v>-1.91521023504099</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2858926263799043</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.97967848203822</v>
+        <v>-19.02984818652772</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.375859727173243</v>
+        <v>-1.385718231213063</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.5427080345882</v>
+        <v>-1.538335205439063</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.1433205089461524</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.76560942162704</v>
+        <v>-19.81403784983858</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.135524323907677</v>
+        <v>-1.149480718736957</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.015638106785992</v>
+        <v>-1.00750778672128</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.03732288193555253</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.74999348769074</v>
+        <v>-20.7962616859334</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.038274698399336</v>
+        <v>-1.053213015941746</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6499046269023742</v>
+        <v>-0.645557982358921</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.003403455469779424</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.58782231574416</v>
+        <v>-21.63543902117951</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8875168311768605</v>
+        <v>-0.905322363041608</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.279889963989512</v>
+        <v>-0.2693113832933973</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.04074292128031055</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.23878470533762</v>
+        <v>-22.28840453310776</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6381739235561875</v>
+        <v>-0.6595798387024097</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09165649835583213</v>
+        <v>0.09398692826165936</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1769901678421246</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.86567035000515</v>
+        <v>-22.91145413304266</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.339774157187567</v>
+        <v>-0.3623714718923862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4135569483253509</v>
+        <v>0.41885933097625</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.3978126272583214</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.4953577474808</v>
+        <v>-23.54137719196947</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07495614760797382</v>
+        <v>-0.1017429992221454</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3808261912210358</v>
+        <v>0.3882364346294527</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.684641363540343</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.0038496975506</v>
+        <v>-24.04743397371071</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04176173222601408</v>
+        <v>0.01267063531169875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6496373531673554</v>
+        <v>0.6630045943687577</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.008716597303157</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.38213869585944</v>
+        <v>-24.42694055618382</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02084023228493582</v>
+        <v>-0.006967818950890348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5760455188940132</v>
+        <v>0.5870037763725379</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.336170450566948</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65418365660766</v>
+        <v>-24.69483525693122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3062917111430893</v>
+        <v>0.2801463823681623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5645897539075029</v>
+        <v>0.5756134729002362</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.630280979687152</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66723668254086</v>
+        <v>-24.70335834608118</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3212300286854987</v>
+        <v>0.2967997915828379</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4104933494603871</v>
+        <v>0.4230750524912858</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.856702008801061</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63468921767633</v>
+        <v>-24.66685700575845</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1400325573560099</v>
+        <v>0.1145942129345362</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3865213429571867</v>
+        <v>0.3981342155777977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.985815226177181</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74118200899093</v>
+        <v>-24.77096699795586</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2585440826793143</v>
+        <v>0.2346899069016894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09811100365680307</v>
+        <v>0.1109152758360112</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.9940030497395</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.78323448571856</v>
+        <v>-24.81127819840553</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2151169141533089</v>
+        <v>0.1960414289129141</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002581897498912115</v>
+        <v>0.007446806477850053</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.869249156843269</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55453813967928</v>
+        <v>-24.58120716056788</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08147068674496924</v>
+        <v>0.06013023311295575</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2022133312295512</v>
+        <v>-0.1925773963380408</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.605096149625174</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.08506125207783</v>
+        <v>-24.11556631769905</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08389276277068856</v>
+        <v>0.06390081633137286</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.664201421605539</v>
+        <v>-0.6571184857681651</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.205593247644869</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.16461008414415</v>
+        <v>-24.19379282717836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1465001549598226</v>
+        <v>0.1285375154609745</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7293094436374427</v>
+        <v>-0.7271361213657161</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.6838392543903439</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.74147994860241</v>
+        <v>-23.77150059901849</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06163584793975425</v>
+        <v>0.04633094591777648</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.194282579061344</v>
+        <v>-1.1918212261271</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.05344715525087284</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18191492514704</v>
+        <v>-23.20875414597258</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09068000332088683</v>
+        <v>-0.1029213064779007</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.272600734660549</v>
+        <v>-1.273124426774218</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6611309850831264</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83477251529867</v>
+        <v>-22.8595693368809</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2839354855676053</v>
+        <v>-0.2974729267059501</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.297816509933714</v>
+        <v>-1.29923047864062</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.434257063108998</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10889596884485</v>
+        <v>-22.13277632922816</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4109177308295064</v>
+        <v>-0.4219283575193981</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.504373771867626</v>
+        <v>-1.508668047199712</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.240894251814652</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30425612849521</v>
+        <v>-21.33313774856406</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3459013549174948</v>
+        <v>-0.3556682128374224</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.62394577372111</v>
+        <v>-1.62136659006129</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.049675484594985</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92893908293145</v>
+        <v>-20.9561579805394</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4071078707025642</v>
+        <v>-0.4190349585913766</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.872162743297395</v>
+        <v>-1.86894203679833</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.840852112131937</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27284451062403</v>
+        <v>-20.29906839321601</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2531292969810239</v>
+        <v>-0.2656717231033975</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.030487961562388</v>
+        <v>-2.027908777902568</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.595391229008784</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96186304122451</v>
+        <v>-19.98227394135476</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5350851309804365</v>
+        <v>-0.5476537417084936</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.251996633341551</v>
+        <v>-2.247532158072523</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.296007948377591</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4352644363246</v>
+        <v>-19.45936736585622</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2580258182438294</v>
+        <v>-0.271523982473649</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.100073551166162</v>
+        <v>-2.103150242333968</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.935543865029602</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87450801331063</v>
+        <v>-18.90037840372589</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.004008958508660256</v>
+        <v>-0.02104204450574587</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.079610281824544</v>
+        <v>-2.088513047756918</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.500767931586222</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9768997304819</v>
+        <v>-18.00669781174967</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01200835554495488</v>
+        <v>-0.02875341087952252</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.970813245209801</v>
+        <v>-1.985057670701599</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.983822387185833</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.63972056309608</v>
+        <v>-17.66907350606724</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03598802667281288</v>
+        <v>0.0230921083737127</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.174778231181051</v>
+        <v>-2.192177901657705</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>7.378297198520189</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12795553731585</v>
+        <v>-17.15719064956143</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004409392218569606</v>
+        <v>-0.009913587090278713</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.219697922231013</v>
+        <v>-2.236495346776948</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>7.676336490959877</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.7508841231713</v>
+        <v>-16.7796871894231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02408712338968388</v>
+        <v>0.008860775184756468</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.1690830794449</v>
+        <v>-2.189022656672849</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>7.880061799276792</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08887182997942</v>
+        <v>-16.11662751200388</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03569999601029491</v>
+        <v>0.02410021569252561</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.461997170922837</v>
+        <v>-2.485641869854995</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>7.989425350287904</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.43420431868175</v>
+        <v>-15.45799303294517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00795740628867737</v>
+        <v>-0.002712820527329376</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.398394763717732</v>
+        <v>-2.423571262082371</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>8.008776704183681</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.9015047006576</v>
+        <v>-14.92899853662523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.153124860197736</v>
+        <v>0.1408573724350387</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.590197000349019</v>
+        <v>-2.621422142626536</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>7.944555923239023</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.20778284998306</v>
+        <v>-14.23299862525623</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3018534204797442</v>
+        <v>0.286757995303234</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.514117628535749</v>
+        <v>-2.555738059269596</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>7.801183001092909</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.43855768882029</v>
+        <v>-13.4571356665527</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2958178688697085</v>
+        <v>0.2830921505075507</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.587513078266465</v>
+        <v>-2.635116691398981</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>7.585744645241254</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.84741403091067</v>
+        <v>-12.86466968605607</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3795169609368632</v>
+        <v>0.3639240282523674</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.597882182117112</v>
+        <v>-2.648366101874808</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>7.300570892060175</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19353205778351</v>
+        <v>-12.20814306775487</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4281548659938755</v>
+        <v>0.4145912402498473</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.621212665781068</v>
+        <v>-2.673254569576929</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.95248520576097</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.82214270307226</v>
+        <v>-11.84027554250805</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3178391222494917</v>
+        <v>0.3020236204166866</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.728909948957107</v>
+        <v>-2.783478667201421</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.547838060853559</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.36365025755502</v>
+        <v>-11.37962286702192</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06909846055953811</v>
+        <v>0.05545628099845955</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.197967882867627</v>
+        <v>-3.257747337642948</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>6.092449191776509</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92463915866626</v>
+        <v>-10.9419079061145</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1576547969809732</v>
+        <v>0.1410406646748228</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.267186887991832</v>
+        <v>-3.329493157215607</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>5.598815384292172</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.16637225498201</v>
+        <v>-10.1831565872251</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09604241980781035</v>
+        <v>0.07908788762777511</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.627591800618867</v>
+        <v>-3.689112531672138</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>5.075106554767783</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.861596537129468</v>
+        <v>-9.878040469498677</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07481213227671484</v>
+        <v>-0.09124297234308106</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.665205986683147</v>
+        <v>-3.726229210228432</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.53457936846655</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.318946768945606</v>
+        <v>-9.334840824595462</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01212075859234626</v>
+        <v>-0.007452234156034213</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.945158698347775</v>
+        <v>-4.00542256832824</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.991431916307234</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.959314302186234</v>
+        <v>-8.972419697330801</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1261470517191227</v>
+        <v>-0.1441620604293378</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.85986234533393</v>
+        <v>-3.918214739099503</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.455715839027581</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.427858452932048</v>
+        <v>-8.434889019558055</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1469114440261003</v>
+        <v>-0.1634077456066751</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.259779827937295</v>
+        <v>-4.319336713564306</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>2.945095686172251</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.923307286017608</v>
+        <v>-7.933218159268795</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09184521827380045</v>
+        <v>-0.1096769347442313</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.222218011084382</v>
+        <v>-4.281984373556861</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.472387859822763</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.439978742009607</v>
+        <v>-7.454511198163923</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1454843830163521</v>
+        <v>-0.1610118541866393</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.223592702882764</v>
+        <v>-4.282927019361466</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.048519977908542</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.085517734872715</v>
+        <v>-7.091618747996959</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3024218171801225</v>
+        <v>-0.3177529038077838</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.472136980030091</v>
+        <v>-4.529153958905808</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.68573915460253</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.71275368836309</v>
+        <v>-6.723934514989924</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2510607131320312</v>
+        <v>-0.2660775844914909</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.754223737057921</v>
+        <v>-4.811594208110365</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.389424738901597</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.465413903077201</v>
+        <v>-6.476071037590367</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.366299162744904</v>
+        <v>-0.3806352343565941</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.743160741156663</v>
+        <v>-4.799837320158495</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.166328138639383</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.302532563423288</v>
+        <v>-6.311108021784618</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4208155117778514</v>
+        <v>-0.4355312601719515</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.854523869128385</v>
+        <v>-4.909079495069857</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.021002573790259</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.02433422033945</v>
+        <v>-6.031770648353551</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3889488466610901</v>
+        <v>-0.4004307962532839</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.853253915752737</v>
+        <v>-4.904235343018418</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.9524180038436701</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.888069532362765</v>
+        <v>-5.894785883720571</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6418659529575543</v>
+        <v>-0.6548535173765465</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.950987956466222</v>
+        <v>-4.999861522974386</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.9597646293721678</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.654686141906157</v>
+        <v>-5.665120707271012</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5908059718748226</v>
+        <v>-0.6052860588177716</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.814487607038386</v>
+        <v>-4.861423512725974</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.038873585459828</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.530204526487025</v>
+        <v>-5.539788092167169</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6876497359950704</v>
+        <v>-0.6985687165650699</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.788145893720833</v>
+        <v>-4.833117953982162</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.181217413637769</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.513132163581414</v>
+        <v>-5.524077328757097</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.779191117464419</v>
+        <v>-0.7898089750690589</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.685489147138859</v>
+        <v>-4.725865809102742</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.377076682476173</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.548494473556916</v>
+        <v>-5.563642267944793</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8369674499049562</v>
+        <v>-0.8453727083293443</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.497169463063472</v>
+        <v>-4.537114079033578</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.613721956927825</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.785975754802985</v>
+        <v>-5.800547487865827</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7302651817448887</v>
+        <v>-0.7397440090022984</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.386879903924771</v>
+        <v>-4.430699841536028</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.876423605070303</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.986301080584236</v>
+        <v>-5.997049861217294</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.057598937393724</v>
+        <v>-1.063372642946925</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.220660027046216</v>
+        <v>-4.266221240935423</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.151885103560157</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.513397192992127</v>
+        <v>-6.52388412756835</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9698543237484758</v>
+        <v>-0.9766361366204899</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.059035548465109</v>
+        <v>-4.103366085887193</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.426421459129933</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.976576682926712</v>
+        <v>-6.98854304772405</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.026976041046927</v>
+        <v>-1.032121316063725</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.977549055578205</v>
+        <v>-4.023882715335074</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.687077695005683</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.552009577426257</v>
+        <v>-7.56789054077327</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.115715669708146</v>
+        <v>-1.118818545481635</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.581153402439265</v>
+        <v>-3.63072086099804</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.925203298931401</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.977548696690879</v>
+        <v>-7.993233275495267</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.078468068123435</v>
+        <v>-1.079384529322356</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.375591155521324</v>
+        <v>-3.42949216632071</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.131809250794473</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.449761875586255</v>
+        <v>-8.464137224106469</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.265308321977708</v>
+        <v>-1.267547105763643</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.008784106804685</v>
+        <v>-3.063352825048999</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.301010568239023</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.392381495584848</v>
+        <v>-9.405997490540244</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.188875457987711</v>
+        <v>-1.189359873192855</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.989682436958607</v>
+        <v>-3.048702538169108</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.428004404523335</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21453883713672</v>
+        <v>-10.22494721789589</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.279448009046772</v>
+        <v>-1.279578932075189</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.81403610203401</v>
+        <v>-2.873854833717856</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.507584876712654</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04665942115115</v>
+        <v>-11.05712017112169</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.383531816638494</v>
+        <v>-1.381856001874753</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.442057593694889</v>
+        <v>-2.501313356356541</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.536379052394606</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.25958272562002</v>
+        <v>-12.26588012328689</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.463106833310505</v>
+        <v>-1.462124910597376</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.334870910329677</v>
+        <v>-2.394087396082804</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.50991157853048</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.1421741370893</v>
+        <v>-13.14713611986631</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.558772290174998</v>
+        <v>-1.5556039528873</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.99272976016685</v>
+        <v>-2.055598998412818</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.425911180839447</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33054937372993</v>
+        <v>-14.32825822073263</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.761284030530817</v>
+        <v>-1.75607329399981</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.745311421063911</v>
+        <v>-1.802629522904988</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.281402112235599</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42909832057348</v>
+        <v>-15.42342935344301</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.804226783851678</v>
+        <v>-1.798047216910383</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.333296650634791</v>
+        <v>-1.391871613548674</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.074175981556813</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83875965984497</v>
+        <v>-16.83191238545874</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.825344668335382</v>
+        <v>-1.816769209974052</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.023807703759229</v>
+        <v>-1.079751113801924</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.804192871627881</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52372594327227</v>
+        <v>-18.50605133443594</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.053883906740552</v>
+        <v>-2.044640740934294</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8149592888280146</v>
+        <v>-0.8743066976095589</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.468898353471031</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13647508422461</v>
+        <v>-20.11869573696555</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.277120762494824</v>
+        <v>-2.269343934606838</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5205133979175953</v>
+        <v>-0.5778969612728807</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.072248060965314</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96210506938342</v>
+        <v>-21.94170726155601</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.48302340928665</v>
+        <v>-2.473151812943988</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6762201556142435</v>
+        <v>-0.7265338754349968</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.616718454349077</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.68274787805443</v>
+        <v>-23.65869731773418</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.585549232840207</v>
+        <v>-2.574473144636106</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4989503751372725</v>
+        <v>-0.549683048648961</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.105212662021544</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75698760187477</v>
+        <v>-25.73203367265844</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.766144458238976</v>
+        <v>-2.758616384104983</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.495965330089359</v>
+        <v>-0.5411337748933139</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5468146471685028</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.02064676320921</v>
+        <v>-27.99414794225756</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.637551859727542</v>
+        <v>-2.628609816886644</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6334083253217992</v>
+        <v>-0.6801871233752865</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05517923426186095</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.30270061003627</v>
+        <v>-30.27501038952602</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.129770077365075</v>
+        <v>-3.121783772631623</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.009942955049841</v>
+        <v>-1.048918740609659</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.6970153267340496</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48252975627513</v>
+        <v>-32.4541849206228</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.190047039648382</v>
+        <v>-3.18297719611385</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.230731550172709</v>
+        <v>-1.270833273776916</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.363076780468652</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70891513141918</v>
+        <v>-34.68074049570379</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.564644008555849</v>
+        <v>-3.548946337448619</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.462949725676405</v>
+        <v>-1.497840712749605</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.05927032811522</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21514847980512</v>
+        <v>-37.18607047519365</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.812180178384363</v>
+        <v>-3.797254953144796</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.884770630933977</v>
+        <v>-1.916100511634227</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.751506000410189</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.74589061911077</v>
+        <v>-39.71326460042918</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.706616940571526</v>
+        <v>-3.691534607697858</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.360558008505144</v>
+        <v>-2.389963320687661</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.455974243325593</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.31833174296731</v>
+        <v>-42.28861221551659</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.890825641554612</v>
+        <v>-3.878885461362958</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.717270891730812</v>
+        <v>-2.740522821577718</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.108590939350595</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.57346781515179</v>
+        <v>-44.54998022385373</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.134211551382299</v>
+        <v>-4.116772603997121</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.320996252671327</v>
+        <v>-3.340909645293592</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.764102780891009</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88401051296245</v>
+        <v>-46.86268315163327</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.277428252167941</v>
+        <v>-4.258104013173553</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.595685858593581</v>
+        <v>-3.612679667682142</v>
       </c>
     </row>
   </sheetData>
